--- a/biology/Zoologie/Conus_litteratus/Conus_litteratus.xlsx
+++ b/biology/Zoologie/Conus_litteratus/Conus_litteratus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus litteratus est une espèce de mollusque gastéropode marin de la famille des Conidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il a été décrit par Linné en 1758.
 Il se caractérise par une spire plus ou moins basse. L'arête de l'épaulement est lisse avec un replat subconcave. Présence d'un sillon anal, de taches noires variables et de bandes jaune foncé.
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Océans Indien et Pacifique occidental (récif Michaelmas, Queensland).
 </t>
